--- a/base de conocimiento.xlsx
+++ b/base de conocimiento.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ciber\Documents\TESIS\Producto\diagramas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ciber\Documents\TESIS\Producto\eureka-vue\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20460" windowHeight="7680" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20460" windowHeight="7680" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Entendimiento del negocio " sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="107">
   <si>
     <t>Entregable</t>
   </si>
@@ -354,7 +354,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -364,6 +364,13 @@
     </font>
     <font>
       <sz val="8"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -405,11 +412,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -443,20 +447,38 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -738,323 +760,335 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:D32"/>
+  <dimension ref="B1:D33"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D32" sqref="B1:D32"/>
+    <sheetView topLeftCell="A19" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17:D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="27.42578125" customWidth="1"/>
-    <col min="2" max="2" width="24" style="11" customWidth="1"/>
-    <col min="3" max="3" width="26.140625" style="4" customWidth="1"/>
-    <col min="4" max="4" width="32.5703125" style="11" customWidth="1"/>
+    <col min="2" max="2" width="24" style="10" customWidth="1"/>
+    <col min="3" max="3" width="26.140625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="32.5703125" style="10" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="16" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="2:4" ht="105" x14ac:dyDescent="0.25">
-      <c r="B2" s="14" t="s">
+    <row r="2" spans="2:4" ht="76.5" x14ac:dyDescent="0.25">
+      <c r="B2" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="13" t="s">
+      <c r="C2" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="17" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="2:4" ht="75.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="14"/>
-      <c r="C3" s="13"/>
-      <c r="D3" s="8" t="s">
+    <row r="3" spans="2:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="18"/>
+      <c r="C3" s="19"/>
+      <c r="D3" s="17" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="2:4" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="14"/>
-      <c r="C4" s="13"/>
-      <c r="D4" s="8" t="s">
+    <row r="4" spans="2:4" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="18"/>
+      <c r="C4" s="19"/>
+      <c r="D4" s="17" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="2:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B5" s="14"/>
-      <c r="C5" s="13" t="s">
+    <row r="5" spans="2:4" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="B5" s="18"/>
+      <c r="C5" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="D5" s="17" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="6" spans="2:4" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="14"/>
-      <c r="C6" s="13"/>
-      <c r="D6" s="8" t="s">
+    <row r="6" spans="2:4" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="18"/>
+      <c r="C6" s="19"/>
+      <c r="D6" s="17" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="2:4" ht="142.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="14"/>
-      <c r="C7" s="13"/>
-      <c r="D7" s="8" t="s">
+    <row r="7" spans="2:4" ht="101.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="18"/>
+      <c r="C7" s="19"/>
+      <c r="D7" s="17" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="2:4" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="14"/>
-      <c r="C8" s="13"/>
-      <c r="D8" s="8" t="s">
+    <row r="8" spans="2:4" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="18"/>
+      <c r="C8" s="19"/>
+      <c r="D8" s="17" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="2:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B9" s="14"/>
-      <c r="C9" s="13"/>
-      <c r="D9" s="8" t="s">
+    <row r="9" spans="2:4" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="B9" s="18"/>
+      <c r="C9" s="19"/>
+      <c r="D9" s="17" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="2:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B10" s="14"/>
-      <c r="C10" s="13" t="s">
+    <row r="10" spans="2:4" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="B10" s="18"/>
+      <c r="C10" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="8" t="s">
+      <c r="D10" s="17" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="11" spans="2:4" ht="70.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="14"/>
-      <c r="C11" s="13"/>
-      <c r="D11" s="8" t="s">
+      <c r="B11" s="18"/>
+      <c r="C11" s="19"/>
+      <c r="D11" s="17" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="2:4" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="14"/>
-      <c r="C12" s="13" t="s">
+    <row r="12" spans="2:4" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="18"/>
+      <c r="C12" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="D12" s="8" t="s">
+      <c r="D12" s="17" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="2:4" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="14"/>
-      <c r="C13" s="13"/>
-      <c r="D13" s="8" t="s">
+    <row r="13" spans="2:4" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="18"/>
+      <c r="C13" s="19"/>
+      <c r="D13" s="17" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="2:4" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="14"/>
-      <c r="C14" s="13"/>
-      <c r="D14" s="8" t="s">
+    <row r="14" spans="2:4" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="18"/>
+      <c r="C14" s="19"/>
+      <c r="D14" s="17" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="15" spans="2:4" ht="94.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="14"/>
-      <c r="C15" s="13" t="s">
+    <row r="15" spans="2:4" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="18"/>
+      <c r="C15" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="D15" s="8" t="s">
+      <c r="D15" s="17" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="16" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B16" s="14"/>
-      <c r="C16" s="13"/>
-      <c r="D16" s="8" t="s">
+      <c r="B16" s="18"/>
+      <c r="C16" s="19"/>
+      <c r="D16" s="17" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="17" spans="2:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B17" s="14" t="s">
+    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B17" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="C17" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="D17" s="16" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="B18" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="C17" s="13" t="s">
+      <c r="C18" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="D17" s="8" t="s">
+      <c r="D18" s="17" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="18" spans="2:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="B18" s="14"/>
-      <c r="C18" s="13"/>
-      <c r="D18" s="8" t="s">
+    <row r="19" spans="2:4" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="B19" s="18"/>
+      <c r="C19" s="19"/>
+      <c r="D19" s="17" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="19" spans="2:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="B19" s="14"/>
-      <c r="C19" s="13"/>
-      <c r="D19" s="8" t="s">
+    <row r="20" spans="2:4" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="B20" s="18"/>
+      <c r="C20" s="19"/>
+      <c r="D20" s="17" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B20" s="14"/>
-      <c r="C20" s="13" t="s">
+    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B21" s="18"/>
+      <c r="C21" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="D20" s="8" t="s">
+      <c r="D21" s="17" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="21" spans="2:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="B21" s="14"/>
-      <c r="C21" s="13"/>
-      <c r="D21" s="8" t="s">
+    <row r="22" spans="2:4" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="B22" s="18"/>
+      <c r="C22" s="19"/>
+      <c r="D22" s="17" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="22" spans="2:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="B22" s="14"/>
-      <c r="C22" s="13"/>
-      <c r="D22" s="8" t="s">
+    <row r="23" spans="2:4" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="B23" s="18"/>
+      <c r="C23" s="19"/>
+      <c r="D23" s="17" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="23" spans="2:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="B23" s="14"/>
-      <c r="C23" s="13" t="s">
+    <row r="24" spans="2:4" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="B24" s="18"/>
+      <c r="C24" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="D23" s="8" t="s">
+      <c r="D24" s="17" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B24" s="14"/>
-      <c r="C24" s="13"/>
-      <c r="D24" s="8" t="s">
+    <row r="25" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B25" s="18"/>
+      <c r="C25" s="19"/>
+      <c r="D25" s="17" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="25" spans="2:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B25" s="14"/>
-      <c r="C25" s="13"/>
-      <c r="D25" s="8" t="s">
+    <row r="26" spans="2:4" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="B26" s="18"/>
+      <c r="C26" s="19"/>
+      <c r="D26" s="17" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="26" spans="2:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="B26" s="14"/>
-      <c r="C26" s="13"/>
-      <c r="D26" s="8" t="s">
+    <row r="27" spans="2:4" ht="51" x14ac:dyDescent="0.25">
+      <c r="B27" s="18"/>
+      <c r="C27" s="19"/>
+      <c r="D27" s="17" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="27" spans="2:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="B27" s="14"/>
-      <c r="C27" s="8" t="s">
+    <row r="28" spans="2:4" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="B28" s="18"/>
+      <c r="C28" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="D27" s="8" t="s">
+      <c r="D28" s="17" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="28" spans="2:4" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="13" t="s">
+    <row r="29" spans="2:4" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B29" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="C28" s="13" t="s">
+      <c r="C29" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="D28" s="8" t="s">
+      <c r="D29" s="17" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="29" spans="2:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B29" s="13"/>
-      <c r="C29" s="13"/>
-      <c r="D29" s="8" t="s">
+    <row r="30" spans="2:4" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="B30" s="19"/>
+      <c r="C30" s="19"/>
+      <c r="D30" s="17" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="30" spans="2:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B30" s="13"/>
-      <c r="C30" s="13" t="s">
+    <row r="31" spans="2:4" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="B31" s="19"/>
+      <c r="C31" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="D30" s="8" t="s">
+      <c r="D31" s="17" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="31" spans="2:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B31" s="13"/>
-      <c r="C31" s="13"/>
-      <c r="D31" s="8" t="s">
+    <row r="32" spans="2:4" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="B32" s="19"/>
+      <c r="C32" s="19"/>
+      <c r="D32" s="17" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="32" spans="2:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B32" s="13"/>
-      <c r="C32" s="13"/>
-      <c r="D32" s="8" t="s">
+    <row r="33" spans="2:4" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="B33" s="19"/>
+      <c r="C33" s="19"/>
+      <c r="D33" s="17" t="s">
         <v>43</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="C30:C32"/>
-    <mergeCell ref="B28:B32"/>
+    <mergeCell ref="C31:C33"/>
+    <mergeCell ref="B29:B33"/>
     <mergeCell ref="C2:C4"/>
     <mergeCell ref="C5:C9"/>
     <mergeCell ref="C10:C11"/>
     <mergeCell ref="B2:B16"/>
     <mergeCell ref="C12:C14"/>
     <mergeCell ref="C15:C16"/>
-    <mergeCell ref="C17:C19"/>
-    <mergeCell ref="C20:C22"/>
-    <mergeCell ref="C23:C26"/>
-    <mergeCell ref="B17:B27"/>
-    <mergeCell ref="C28:C29"/>
+    <mergeCell ref="C18:C20"/>
+    <mergeCell ref="C21:C23"/>
+    <mergeCell ref="C24:C27"/>
+    <mergeCell ref="B18:B28"/>
+    <mergeCell ref="C29:C30"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H20"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B4"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7:C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="24.7109375" customWidth="1"/>
-    <col min="2" max="2" width="36.42578125" customWidth="1"/>
+    <col min="2" max="2" width="34.140625" customWidth="1"/>
     <col min="3" max="3" width="18.42578125" customWidth="1"/>
     <col min="6" max="6" width="39.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="2"/>
+      <c r="F1" s="1"/>
     </row>
     <row r="2" spans="1:8" ht="154.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
@@ -1063,171 +1097,182 @@
       <c r="B2" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="7" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="94.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="14"/>
       <c r="B3" s="13"/>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="7" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="102.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="14"/>
       <c r="B4" s="13"/>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="7" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="90" x14ac:dyDescent="0.25">
       <c r="A5" s="14"/>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="C5" s="8" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="83.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="14"/>
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="C6" s="8" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="119.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="14" t="s">
+    <row r="7" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="C7" s="16" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="79.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="B7" s="14" t="s">
+      <c r="B8" s="18" t="s">
         <v>66</v>
       </c>
-      <c r="C7" s="9" t="s">
+      <c r="C8" s="20" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="140.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="14"/>
-      <c r="B8" s="14"/>
-      <c r="C8" s="9" t="s">
+    <row r="9" spans="1:8" ht="96.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="18"/>
+      <c r="B9" s="18"/>
+      <c r="C9" s="20" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="202.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="14"/>
-      <c r="B9" s="14"/>
-      <c r="C9" s="1" t="s">
+    <row r="10" spans="1:8" ht="132.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="18"/>
+      <c r="B10" s="18"/>
+      <c r="C10" s="21" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="129.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="14"/>
-      <c r="B10" s="14"/>
-      <c r="C10" s="8" t="s">
+    <row r="11" spans="1:8" ht="106.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="18"/>
+      <c r="B11" s="18"/>
+      <c r="C11" s="17" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="14"/>
-      <c r="B11" s="14"/>
-      <c r="C11" s="8" t="s">
+    <row r="12" spans="1:8" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="18"/>
+      <c r="B12" s="18"/>
+      <c r="C12" s="17" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="173.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="14"/>
-      <c r="B12" s="14"/>
-      <c r="C12" s="8" t="s">
+    <row r="13" spans="1:8" ht="141.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="18"/>
+      <c r="B13" s="18"/>
+      <c r="C13" s="17" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A13" s="15" t="s">
+    <row r="14" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A14" s="22" t="s">
         <v>63</v>
       </c>
-      <c r="B13" s="14" t="s">
+      <c r="B14" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="C13" s="8" t="s">
+      <c r="C14" s="17" t="s">
         <v>67</v>
       </c>
-      <c r="G13" t="s">
+      <c r="G14" t="s">
         <v>68</v>
       </c>
-      <c r="H13" t="s">
+      <c r="H14" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A14" s="15"/>
-      <c r="B14" s="14"/>
-      <c r="C14" s="1" t="s">
+    <row r="15" spans="1:8" ht="39" x14ac:dyDescent="0.25">
+      <c r="A15" s="22"/>
+      <c r="B15" s="18"/>
+      <c r="C15" s="21" t="s">
         <v>70</v>
       </c>
-      <c r="G14" t="s">
+      <c r="G15" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="15"/>
-      <c r="B15" s="14"/>
-      <c r="C15" s="8" t="s">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="22"/>
+      <c r="B16" s="18"/>
+      <c r="C16" s="17" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A16" s="15"/>
-      <c r="B16" s="14"/>
-      <c r="C16" s="8" t="s">
+    <row r="17" spans="1:3" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A17" s="22"/>
+      <c r="B17" s="18"/>
+      <c r="C17" s="17" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A17" s="13" t="s">
+    <row r="18" spans="1:3" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A18" s="19" t="s">
         <v>79</v>
       </c>
-      <c r="B17" s="14" t="s">
+      <c r="B18" s="18" t="s">
         <v>73</v>
       </c>
-      <c r="C17" s="8" t="s">
+      <c r="C18" s="17" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="75" x14ac:dyDescent="0.25">
-      <c r="A18" s="13"/>
-      <c r="B18" s="14"/>
-      <c r="C18" s="8" t="s">
+    <row r="19" spans="1:3" ht="63.75" x14ac:dyDescent="0.25">
+      <c r="A19" s="19"/>
+      <c r="B19" s="18"/>
+      <c r="C19" s="17" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A19" s="13"/>
-      <c r="B19" s="14"/>
-      <c r="C19" s="8" t="s">
+    <row r="20" spans="1:3" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="19"/>
+      <c r="B20" s="18"/>
+      <c r="C20" s="17" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="94.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="13"/>
-      <c r="B20" s="14"/>
-      <c r="C20" s="8" t="s">
+    <row r="21" spans="1:3" ht="65.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="19"/>
+      <c r="B21" s="18"/>
+      <c r="C21" s="17" t="s">
         <v>78</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="A17:A20"/>
-    <mergeCell ref="B17:B20"/>
-    <mergeCell ref="B13:B16"/>
+    <mergeCell ref="A18:A21"/>
+    <mergeCell ref="B18:B21"/>
+    <mergeCell ref="B14:B17"/>
     <mergeCell ref="B2:B4"/>
     <mergeCell ref="A2:A6"/>
-    <mergeCell ref="B7:B12"/>
-    <mergeCell ref="A7:A12"/>
-    <mergeCell ref="A13:A16"/>
+    <mergeCell ref="B8:B13"/>
+    <mergeCell ref="A8:A13"/>
+    <mergeCell ref="A14:A17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1237,119 +1282,119 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.28515625" style="7" customWidth="1"/>
-    <col min="2" max="2" width="24.7109375" style="7" customWidth="1"/>
-    <col min="3" max="3" width="17.140625" style="7" customWidth="1"/>
+    <col min="1" max="1" width="28.28515625" style="6" customWidth="1"/>
+    <col min="2" max="2" width="24.7109375" style="6" customWidth="1"/>
+    <col min="3" max="3" width="17.140625" style="6" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="12" t="s">
         <v>88</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="C1" s="12" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="90" x14ac:dyDescent="0.25">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="15" t="s">
         <v>80</v>
       </c>
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="15" t="s">
         <v>81</v>
       </c>
-      <c r="C2" s="16" t="s">
+      <c r="C2" s="12" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="157.5" x14ac:dyDescent="0.25">
-      <c r="A3" s="17"/>
-      <c r="B3" s="17"/>
-      <c r="C3" s="16" t="s">
+      <c r="A3" s="15"/>
+      <c r="B3" s="15"/>
+      <c r="C3" s="12" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A4" s="17"/>
-      <c r="B4" s="17"/>
-      <c r="C4" s="16" t="s">
+      <c r="A4" s="15"/>
+      <c r="B4" s="15"/>
+      <c r="C4" s="12" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="17" t="s">
+      <c r="A5" s="15" t="s">
         <v>91</v>
       </c>
-      <c r="B5" s="17" t="s">
+      <c r="B5" s="15" t="s">
         <v>87</v>
       </c>
-      <c r="C5" s="16" t="s">
+      <c r="C5" s="12" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="67.5" x14ac:dyDescent="0.25">
-      <c r="A6" s="17"/>
-      <c r="B6" s="17"/>
-      <c r="C6" s="16" t="s">
+      <c r="A6" s="15"/>
+      <c r="B6" s="15"/>
+      <c r="C6" s="12" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="101.25" x14ac:dyDescent="0.25">
-      <c r="A7" s="17"/>
-      <c r="B7" s="17"/>
-      <c r="C7" s="16" t="s">
+      <c r="A7" s="15"/>
+      <c r="B7" s="15"/>
+      <c r="C7" s="12" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A8" s="16" t="s">
+      <c r="A8" s="12" t="s">
         <v>89</v>
       </c>
-      <c r="B8" s="16" t="s">
+      <c r="B8" s="12" t="s">
         <v>99</v>
       </c>
-      <c r="C8" s="16" t="s">
+      <c r="C8" s="12" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="16" t="s">
+      <c r="A9" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="B9" s="16" t="s">
+      <c r="B9" s="12" t="s">
         <v>88</v>
       </c>
-      <c r="C9" s="16" t="s">
+      <c r="C9" s="12" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="16" t="s">
+      <c r="A10" s="12" t="s">
         <v>106</v>
       </c>
-      <c r="B10" s="16" t="s">
+      <c r="B10" s="12" t="s">
         <v>101</v>
       </c>
-      <c r="C10" s="16" t="s">
+      <c r="C10" s="12" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A11" s="16" t="s">
+      <c r="A11" s="12" t="s">
         <v>103</v>
       </c>
-      <c r="B11" s="16" t="s">
+      <c r="B11" s="12" t="s">
         <v>104</v>
       </c>
-      <c r="C11" s="16" t="s">
+      <c r="C11" s="12" t="s">
         <v>105</v>
       </c>
     </row>
@@ -1369,8 +1414,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C8" sqref="A1:C8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1381,13 +1426,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="5" t="s">
         <v>1</v>
       </c>
     </row>
@@ -1398,21 +1443,21 @@
       <c r="B2" s="13" t="s">
         <v>81</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="5" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="120" x14ac:dyDescent="0.25">
       <c r="A3" s="13"/>
       <c r="B3" s="13"/>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="5" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="13"/>
       <c r="B4" s="13"/>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="5" t="s">
         <v>86</v>
       </c>
     </row>
@@ -1423,32 +1468,32 @@
       <c r="B5" s="13" t="s">
         <v>93</v>
       </c>
-      <c r="C5" s="12" t="s">
+      <c r="C5" s="11" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" s="13"/>
       <c r="B6" s="13"/>
-      <c r="C6" s="12" t="s">
+      <c r="C6" s="11" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" s="13"/>
       <c r="B7" s="13"/>
-      <c r="C7" s="12" t="s">
+      <c r="C7" s="11" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A8" s="6" t="s">
+      <c r="A8" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="C8" s="12" t="s">
+      <c r="C8" s="11" t="s">
         <v>100</v>
       </c>
     </row>

--- a/base de conocimiento.xlsx
+++ b/base de conocimiento.xlsx
@@ -9,13 +9,14 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20460" windowHeight="7680" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20460" windowHeight="7680"/>
   </bookViews>
   <sheets>
-    <sheet name="Entendimiento del negocio " sheetId="1" r:id="rId1"/>
-    <sheet name="Exploración de los datos" sheetId="4" r:id="rId2"/>
-    <sheet name="Preprocesamiento EM" sheetId="5" r:id="rId3"/>
-    <sheet name="Preprocesamiento de asociacion" sheetId="6" r:id="rId4"/>
+    <sheet name="Entendiendo el analisis de dato" sheetId="7" r:id="rId1"/>
+    <sheet name="Entendimiento del negocio " sheetId="1" r:id="rId2"/>
+    <sheet name="Exploración de los datos" sheetId="4" r:id="rId3"/>
+    <sheet name="Preprocesamiento EM" sheetId="5" r:id="rId4"/>
+    <sheet name="Preprocesamiento de asociacion" sheetId="6" r:id="rId5"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="120">
   <si>
     <t>Entregable</t>
   </si>
@@ -348,13 +349,52 @@
   </si>
   <si>
     <t>Transformación de tipos de datos</t>
+  </si>
+  <si>
+    <t>Entender que es un análisis de datos</t>
+  </si>
+  <si>
+    <t>Entender el descubrimiento de conocimiento</t>
+  </si>
+  <si>
+    <t>Entender funcionamiento del asistente</t>
+  </si>
+  <si>
+    <t>Ninguno</t>
+  </si>
+  <si>
+    <t xml:space="preserve">El análisis de datos se define como la descomposición, observación y estudio de un conjunto de datos con el objetivo de responder preguntas acerca de los mismos </t>
+  </si>
+  <si>
+    <t xml:space="preserve">El descubrimiento de conocimiento (también llamado KDD Knowledge Discovery in Databases, por sus siglas en inglés) es un proceso que tiene las siguientes etapas: 1) entender el dominio de aplicación y conocimiento relevante, 2) integración y recolección y datos 3)  pre procesar (limpiar y transformar) los datos seleccionados e incorporar el conocimiento previo que se tiene del problema, 4) pasar los datos previamente transformados a través de algoritmos de minería de datos y análisis de datos, 5) mostrar e interpretar los resultados obtenidos </t>
+  </si>
+  <si>
+    <t>La función de este asistente es guiar al usuario a traves del proceso de descubrimiento de conocimiento</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sin embargo, el conocimiento suministrado solo permite resolver 2 tipos de problemas, problemas que requieran descubrimiento de dependencias entre los datosy problemas de segmentación de los datos en subgrupos. </t>
+  </si>
+  <si>
+    <t>Durante la primera fase el asistente realiza preguntas centradas en el contexto de los datos, su origen, el responsable de los mismos, así como la estructura de la organización donde estos se generan y un conocimiento general acerca de cómo se comportan y están estructurados los datos</t>
+  </si>
+  <si>
+    <t>Durante la segunda fase el asistente realiza preguntas necesarias para que el usuario empiece el proceso de análisis de datos, estas se centran en la verificación de la calidad de los datos, la evaluación de los mismos sobre sus inconsistencias, el formato que estos poseen, el descarte de datos irrelevantes para el objetivo ya planteado en la primera etapa, así como la integración de los mismos a la herramienta de análisis seleccionada para este trabajo de grado (WEKA) y la aplicación de una técnica hacia los datos sin pre procesamiento para darle al usuario una pre visualización del estado y comportamiento de sus datos</t>
+  </si>
+  <si>
+    <t>Durante la terce fase el asistente realiza preguntas relacionadas a los filtros y técnicas incluidas en el asistente para que el usuario novato pueda aplicarlas a sus datos, con el objetivo de mejorar la calidad de lo mismos</t>
+  </si>
+  <si>
+    <t>Durante la cuarta fase el asistente indica como aplicar la técnica determinada por la fase 1</t>
+  </si>
+  <si>
+    <t>El asistente inteligente comprende el conocimiente hasta la 4ta etapa del proceso de descubrimiento de conocimiento</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -375,6 +415,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -412,7 +458,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -450,35 +496,53 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -760,10 +824,120 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:D10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="23" customWidth="1"/>
+    <col min="4" max="4" width="58" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="13" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="2:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C2" t="s">
+        <v>110</v>
+      </c>
+      <c r="D2" s="18" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4" ht="165.75" x14ac:dyDescent="0.25">
+      <c r="B3" s="20" t="s">
+        <v>108</v>
+      </c>
+      <c r="C3" t="s">
+        <v>110</v>
+      </c>
+      <c r="D3" s="17" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="21" t="s">
+        <v>109</v>
+      </c>
+      <c r="C4" s="22" t="s">
+        <v>110</v>
+      </c>
+      <c r="D4" s="19" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="B5" s="21"/>
+      <c r="C5" s="22"/>
+      <c r="D5" s="19" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="B6" s="21"/>
+      <c r="C6" s="22"/>
+      <c r="D6" s="19" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" ht="90" x14ac:dyDescent="0.25">
+      <c r="B7" s="21"/>
+      <c r="C7" s="22"/>
+      <c r="D7" s="19" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" ht="165" x14ac:dyDescent="0.25">
+      <c r="B8" s="21"/>
+      <c r="C8" s="22"/>
+      <c r="D8" s="19" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="B9" s="21"/>
+      <c r="C9" s="22"/>
+      <c r="D9" s="19" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="B10" s="21"/>
+      <c r="C10" s="22"/>
+      <c r="D10" s="19" t="s">
+        <v>118</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B4:B10"/>
+    <mergeCell ref="C4:C10"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:D33"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17:D33"/>
+    <sheetView topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -775,269 +949,269 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="17" t="s">
+      <c r="C1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="16" t="s">
+      <c r="D1" s="13" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="2:4" ht="76.5" x14ac:dyDescent="0.25">
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="19" t="s">
+      <c r="C2" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="17" t="s">
+      <c r="D2" s="14" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="3" spans="2:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="18"/>
-      <c r="C3" s="19"/>
-      <c r="D3" s="17" t="s">
+      <c r="B3" s="24"/>
+      <c r="C3" s="23"/>
+      <c r="D3" s="14" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="4" spans="2:4" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="18"/>
-      <c r="C4" s="19"/>
-      <c r="D4" s="17" t="s">
+      <c r="B4" s="24"/>
+      <c r="C4" s="23"/>
+      <c r="D4" s="14" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="5" spans="2:4" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="B5" s="18"/>
-      <c r="C5" s="19" t="s">
+      <c r="B5" s="24"/>
+      <c r="C5" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="D5" s="17" t="s">
+      <c r="D5" s="14" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="6" spans="2:4" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="18"/>
-      <c r="C6" s="19"/>
-      <c r="D6" s="17" t="s">
+      <c r="B6" s="24"/>
+      <c r="C6" s="23"/>
+      <c r="D6" s="14" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="7" spans="2:4" ht="101.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="18"/>
-      <c r="C7" s="19"/>
-      <c r="D7" s="17" t="s">
+      <c r="B7" s="24"/>
+      <c r="C7" s="23"/>
+      <c r="D7" s="14" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="8" spans="2:4" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="18"/>
-      <c r="C8" s="19"/>
-      <c r="D8" s="17" t="s">
+      <c r="B8" s="24"/>
+      <c r="C8" s="23"/>
+      <c r="D8" s="14" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="9" spans="2:4" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="B9" s="18"/>
-      <c r="C9" s="19"/>
-      <c r="D9" s="17" t="s">
+      <c r="B9" s="24"/>
+      <c r="C9" s="23"/>
+      <c r="D9" s="14" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="10" spans="2:4" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="B10" s="18"/>
-      <c r="C10" s="19" t="s">
+      <c r="B10" s="24"/>
+      <c r="C10" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="17" t="s">
+      <c r="D10" s="14" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="11" spans="2:4" ht="70.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="18"/>
-      <c r="C11" s="19"/>
-      <c r="D11" s="17" t="s">
+      <c r="B11" s="24"/>
+      <c r="C11" s="23"/>
+      <c r="D11" s="14" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="12" spans="2:4" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="18"/>
-      <c r="C12" s="19" t="s">
+      <c r="B12" s="24"/>
+      <c r="C12" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="D12" s="17" t="s">
+      <c r="D12" s="14" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="13" spans="2:4" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="18"/>
-      <c r="C13" s="19"/>
-      <c r="D13" s="17" t="s">
+      <c r="B13" s="24"/>
+      <c r="C13" s="23"/>
+      <c r="D13" s="14" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="14" spans="2:4" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="18"/>
-      <c r="C14" s="19"/>
-      <c r="D14" s="17" t="s">
+      <c r="B14" s="24"/>
+      <c r="C14" s="23"/>
+      <c r="D14" s="14" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="15" spans="2:4" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="18"/>
-      <c r="C15" s="19" t="s">
+      <c r="B15" s="24"/>
+      <c r="C15" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="D15" s="17" t="s">
+      <c r="D15" s="14" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="16" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B16" s="18"/>
-      <c r="C16" s="19"/>
-      <c r="D16" s="17" t="s">
+      <c r="B16" s="24"/>
+      <c r="C16" s="23"/>
+      <c r="D16" s="14" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B17" s="16" t="s">
+      <c r="B17" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="C17" s="17" t="s">
+      <c r="C17" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="D17" s="16" t="s">
+      <c r="D17" s="13" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="18" spans="2:4" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="B18" s="18" t="s">
+      <c r="B18" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="C18" s="19" t="s">
+      <c r="C18" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="D18" s="17" t="s">
+      <c r="D18" s="14" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="19" spans="2:4" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="B19" s="18"/>
-      <c r="C19" s="19"/>
-      <c r="D19" s="17" t="s">
+      <c r="B19" s="24"/>
+      <c r="C19" s="23"/>
+      <c r="D19" s="14" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="20" spans="2:4" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="B20" s="18"/>
-      <c r="C20" s="19"/>
-      <c r="D20" s="17" t="s">
+      <c r="B20" s="24"/>
+      <c r="C20" s="23"/>
+      <c r="D20" s="14" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="21" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B21" s="18"/>
-      <c r="C21" s="19" t="s">
+      <c r="B21" s="24"/>
+      <c r="C21" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="D21" s="17" t="s">
+      <c r="D21" s="14" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="22" spans="2:4" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="B22" s="18"/>
-      <c r="C22" s="19"/>
-      <c r="D22" s="17" t="s">
+      <c r="B22" s="24"/>
+      <c r="C22" s="23"/>
+      <c r="D22" s="14" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="23" spans="2:4" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="B23" s="18"/>
-      <c r="C23" s="19"/>
-      <c r="D23" s="17" t="s">
+      <c r="B23" s="24"/>
+      <c r="C23" s="23"/>
+      <c r="D23" s="14" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="24" spans="2:4" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="B24" s="18"/>
-      <c r="C24" s="19" t="s">
+      <c r="B24" s="24"/>
+      <c r="C24" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="D24" s="17" t="s">
+      <c r="D24" s="14" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="25" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B25" s="18"/>
-      <c r="C25" s="19"/>
-      <c r="D25" s="17" t="s">
+      <c r="B25" s="24"/>
+      <c r="C25" s="23"/>
+      <c r="D25" s="14" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="26" spans="2:4" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="B26" s="18"/>
-      <c r="C26" s="19"/>
-      <c r="D26" s="17" t="s">
+      <c r="B26" s="24"/>
+      <c r="C26" s="23"/>
+      <c r="D26" s="14" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="27" spans="2:4" ht="51" x14ac:dyDescent="0.25">
-      <c r="B27" s="18"/>
-      <c r="C27" s="19"/>
-      <c r="D27" s="17" t="s">
+      <c r="B27" s="24"/>
+      <c r="C27" s="23"/>
+      <c r="D27" s="14" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="28" spans="2:4" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="B28" s="18"/>
-      <c r="C28" s="17" t="s">
+      <c r="B28" s="24"/>
+      <c r="C28" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="D28" s="17" t="s">
+      <c r="D28" s="14" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="29" spans="2:4" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="19" t="s">
+      <c r="B29" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="C29" s="19" t="s">
+      <c r="C29" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="D29" s="17" t="s">
+      <c r="D29" s="14" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="30" spans="2:4" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="B30" s="19"/>
-      <c r="C30" s="19"/>
-      <c r="D30" s="17" t="s">
+      <c r="B30" s="23"/>
+      <c r="C30" s="23"/>
+      <c r="D30" s="14" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="31" spans="2:4" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="B31" s="19"/>
-      <c r="C31" s="19" t="s">
+      <c r="B31" s="23"/>
+      <c r="C31" s="23" t="s">
         <v>40</v>
       </c>
-      <c r="D31" s="17" t="s">
+      <c r="D31" s="14" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="32" spans="2:4" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="B32" s="19"/>
-      <c r="C32" s="19"/>
-      <c r="D32" s="17" t="s">
+      <c r="B32" s="23"/>
+      <c r="C32" s="23"/>
+      <c r="D32" s="14" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="33" spans="2:4" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="B33" s="19"/>
-      <c r="C33" s="19"/>
-      <c r="D33" s="17" t="s">
+      <c r="B33" s="23"/>
+      <c r="C33" s="23"/>
+      <c r="D33" s="14" t="s">
         <v>43</v>
       </c>
     </row>
@@ -1062,12 +1236,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:C21"/>
+    <sheetView topLeftCell="A12" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1091,10 +1265,10 @@
       <c r="F1" s="1"/>
     </row>
     <row r="2" spans="1:8" ht="154.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="26" t="s">
         <v>48</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="25" t="s">
         <v>49</v>
       </c>
       <c r="C2" s="7" t="s">
@@ -1102,21 +1276,21 @@
       </c>
     </row>
     <row r="3" spans="1:8" ht="94.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="14"/>
-      <c r="B3" s="13"/>
+      <c r="A3" s="26"/>
+      <c r="B3" s="25"/>
       <c r="C3" s="7" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="102.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="14"/>
-      <c r="B4" s="13"/>
+      <c r="A4" s="26"/>
+      <c r="B4" s="25"/>
       <c r="C4" s="7" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="90" x14ac:dyDescent="0.25">
-      <c r="A5" s="14"/>
+      <c r="A5" s="26"/>
       <c r="B5" s="4" t="s">
         <v>54</v>
       </c>
@@ -1125,7 +1299,7 @@
       </c>
     </row>
     <row r="6" spans="1:8" ht="83.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="14"/>
+      <c r="A6" s="26"/>
       <c r="B6" s="9" t="s">
         <v>50</v>
       </c>
@@ -1134,70 +1308,70 @@
       </c>
     </row>
     <row r="7" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="16" t="s">
+      <c r="A7" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="16" t="s">
+      <c r="B7" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="C7" s="16" t="s">
+      <c r="C7" s="13" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="79.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="18" t="s">
+      <c r="A8" s="24" t="s">
         <v>57</v>
       </c>
-      <c r="B8" s="18" t="s">
+      <c r="B8" s="24" t="s">
         <v>66</v>
       </c>
-      <c r="C8" s="20" t="s">
+      <c r="C8" s="15" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="96.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="18"/>
-      <c r="B9" s="18"/>
-      <c r="C9" s="20" t="s">
+      <c r="A9" s="24"/>
+      <c r="B9" s="24"/>
+      <c r="C9" s="15" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="132.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="18"/>
-      <c r="B10" s="18"/>
-      <c r="C10" s="21" t="s">
+      <c r="A10" s="24"/>
+      <c r="B10" s="24"/>
+      <c r="C10" s="16" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="106.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="18"/>
-      <c r="B11" s="18"/>
-      <c r="C11" s="17" t="s">
+      <c r="A11" s="24"/>
+      <c r="B11" s="24"/>
+      <c r="C11" s="14" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="18"/>
-      <c r="B12" s="18"/>
-      <c r="C12" s="17" t="s">
+      <c r="A12" s="24"/>
+      <c r="B12" s="24"/>
+      <c r="C12" s="14" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="141.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="18"/>
-      <c r="B13" s="18"/>
-      <c r="C13" s="17" t="s">
+      <c r="A13" s="24"/>
+      <c r="B13" s="24"/>
+      <c r="C13" s="14" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A14" s="22" t="s">
+      <c r="A14" s="27" t="s">
         <v>63</v>
       </c>
-      <c r="B14" s="18" t="s">
+      <c r="B14" s="24" t="s">
         <v>64</v>
       </c>
-      <c r="C14" s="17" t="s">
+      <c r="C14" s="14" t="s">
         <v>67</v>
       </c>
       <c r="G14" t="s">
@@ -1208,9 +1382,9 @@
       </c>
     </row>
     <row r="15" spans="1:8" ht="39" x14ac:dyDescent="0.25">
-      <c r="A15" s="22"/>
-      <c r="B15" s="18"/>
-      <c r="C15" s="21" t="s">
+      <c r="A15" s="27"/>
+      <c r="B15" s="24"/>
+      <c r="C15" s="16" t="s">
         <v>70</v>
       </c>
       <c r="G15" t="s">
@@ -1218,48 +1392,48 @@
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="22"/>
-      <c r="B16" s="18"/>
-      <c r="C16" s="17" t="s">
+      <c r="A16" s="27"/>
+      <c r="B16" s="24"/>
+      <c r="C16" s="14" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A17" s="22"/>
-      <c r="B17" s="18"/>
-      <c r="C17" s="17" t="s">
+      <c r="A17" s="27"/>
+      <c r="B17" s="24"/>
+      <c r="C17" s="14" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A18" s="19" t="s">
+      <c r="A18" s="23" t="s">
         <v>79</v>
       </c>
-      <c r="B18" s="18" t="s">
+      <c r="B18" s="24" t="s">
         <v>73</v>
       </c>
-      <c r="C18" s="17" t="s">
+      <c r="C18" s="14" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="63.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="19"/>
-      <c r="B19" s="18"/>
-      <c r="C19" s="17" t="s">
+      <c r="A19" s="23"/>
+      <c r="B19" s="24"/>
+      <c r="C19" s="14" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="19"/>
-      <c r="B20" s="18"/>
-      <c r="C20" s="17" t="s">
+      <c r="A20" s="23"/>
+      <c r="B20" s="24"/>
+      <c r="C20" s="14" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="65.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="19"/>
-      <c r="B21" s="18"/>
-      <c r="C21" s="17" t="s">
+      <c r="A21" s="23"/>
+      <c r="B21" s="24"/>
+      <c r="C21" s="14" t="s">
         <v>78</v>
       </c>
     </row>
@@ -1278,7 +1452,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C11"/>
   <sheetViews>
@@ -1305,10 +1479,10 @@
       </c>
     </row>
     <row r="2" spans="1:3" ht="90" x14ac:dyDescent="0.25">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="28" t="s">
         <v>80</v>
       </c>
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="28" t="s">
         <v>81</v>
       </c>
       <c r="C2" s="12" t="s">
@@ -1316,24 +1490,24 @@
       </c>
     </row>
     <row r="3" spans="1:3" ht="157.5" x14ac:dyDescent="0.25">
-      <c r="A3" s="15"/>
-      <c r="B3" s="15"/>
+      <c r="A3" s="28"/>
+      <c r="B3" s="28"/>
       <c r="C3" s="12" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A4" s="15"/>
-      <c r="B4" s="15"/>
+      <c r="A4" s="28"/>
+      <c r="B4" s="28"/>
       <c r="C4" s="12" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="15" t="s">
+      <c r="A5" s="28" t="s">
         <v>91</v>
       </c>
-      <c r="B5" s="15" t="s">
+      <c r="B5" s="28" t="s">
         <v>87</v>
       </c>
       <c r="C5" s="12" t="s">
@@ -1341,15 +1515,15 @@
       </c>
     </row>
     <row r="6" spans="1:3" ht="67.5" x14ac:dyDescent="0.25">
-      <c r="A6" s="15"/>
-      <c r="B6" s="15"/>
+      <c r="A6" s="28"/>
+      <c r="B6" s="28"/>
       <c r="C6" s="12" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="101.25" x14ac:dyDescent="0.25">
-      <c r="A7" s="15"/>
-      <c r="B7" s="15"/>
+      <c r="A7" s="28"/>
+      <c r="B7" s="28"/>
       <c r="C7" s="12" t="s">
         <v>85</v>
       </c>
@@ -1410,7 +1584,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C8"/>
   <sheetViews>
@@ -1437,10 +1611,10 @@
       </c>
     </row>
     <row r="2" spans="1:3" ht="75" x14ac:dyDescent="0.25">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="25" t="s">
         <v>80</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="25" t="s">
         <v>81</v>
       </c>
       <c r="C2" s="5" t="s">
@@ -1448,24 +1622,24 @@
       </c>
     </row>
     <row r="3" spans="1:3" ht="120" x14ac:dyDescent="0.25">
-      <c r="A3" s="13"/>
-      <c r="B3" s="13"/>
+      <c r="A3" s="25"/>
+      <c r="B3" s="25"/>
       <c r="C3" s="5" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="13"/>
-      <c r="B4" s="13"/>
+      <c r="A4" s="25"/>
+      <c r="B4" s="25"/>
       <c r="C4" s="5" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="13" t="s">
+      <c r="A5" s="25" t="s">
         <v>92</v>
       </c>
-      <c r="B5" s="13" t="s">
+      <c r="B5" s="25" t="s">
         <v>93</v>
       </c>
       <c r="C5" s="11" t="s">
@@ -1473,15 +1647,15 @@
       </c>
     </row>
     <row r="6" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A6" s="13"/>
-      <c r="B6" s="13"/>
+      <c r="A6" s="25"/>
+      <c r="B6" s="25"/>
       <c r="C6" s="11" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A7" s="13"/>
-      <c r="B7" s="13"/>
+      <c r="A7" s="25"/>
+      <c r="B7" s="25"/>
       <c r="C7" s="11" t="s">
         <v>96</v>
       </c>
